--- a/orcamentos/Prefeitura de Itapema_tatatata.xlsx
+++ b/orcamentos/Prefeitura de Itapema_tatatata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5601FC3E-C75F-4EB1-92AA-0D126DC12491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27EE9B1-E510-46E4-8A50-6CE9DA3101AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -131,21 +131,6 @@
     <t>descrição</t>
   </si>
   <si>
-    <t>GR02</t>
-  </si>
-  <si>
-    <t>1,25</t>
-  </si>
-  <si>
-    <t>1,9</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Chuva de estrelas produzida em estrutura metálica e mangueira luminosa</t>
-  </si>
-  <si>
     <t>asdasddd</t>
   </si>
   <si>
@@ -156,6 +141,9 @@
   </si>
   <si>
     <t>qweqweeqw</t>
+  </si>
+  <si>
+    <t>qweqwe</t>
   </si>
 </sst>
 </file>
@@ -592,7 +580,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -600,7 +588,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -711,7 +699,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B8AEC9-079E-4407-8AD6-CA2B056EC51F}">
   <sheetPr codeName="Planilha3"/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -815,36 +803,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
         <v>36</v>
       </c>
-      <c r="G4">
-        <v>224</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="C4" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
